--- a/Code/Results/Cases/Case_7_17/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_17/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.012535247839021</v>
+        <v>1.012535247839022</v>
       </c>
       <c r="D2">
-        <v>1.033932524154694</v>
+        <v>1.033932524154696</v>
       </c>
       <c r="E2">
-        <v>1.014811210516082</v>
+        <v>1.014811210516083</v>
       </c>
       <c r="F2">
-        <v>1.038140898841031</v>
+        <v>1.038140898841033</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.055141289436248</v>
+        <v>1.05514128943625</v>
       </c>
       <c r="J2">
-        <v>1.034347388560453</v>
+        <v>1.034347388560455</v>
       </c>
       <c r="K2">
-        <v>1.044938530808099</v>
+        <v>1.0449385308081</v>
       </c>
       <c r="L2">
-        <v>1.026067987148536</v>
+        <v>1.026067987148537</v>
       </c>
       <c r="M2">
-        <v>1.04909326296102</v>
+        <v>1.049093262961021</v>
       </c>
       <c r="N2">
-        <v>1.035816280493513</v>
+        <v>1.035816280493514</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,16 +462,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.02175722610631</v>
+        <v>1.021757226106311</v>
       </c>
       <c r="D3">
         <v>1.041282683810308</v>
       </c>
       <c r="E3">
-        <v>1.022821940938248</v>
+        <v>1.022821940938249</v>
       </c>
       <c r="F3">
-        <v>1.046062629883509</v>
+        <v>1.04606262988351</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -480,19 +480,19 @@
         <v>1.058581494019106</v>
       </c>
       <c r="J3">
-        <v>1.041671841709686</v>
+        <v>1.041671841709688</v>
       </c>
       <c r="K3">
         <v>1.05141324835455</v>
       </c>
       <c r="L3">
-        <v>1.033170906382284</v>
+        <v>1.033170906382285</v>
       </c>
       <c r="M3">
-        <v>1.056138196012938</v>
+        <v>1.056138196012939</v>
       </c>
       <c r="N3">
-        <v>1.043151135206345</v>
+        <v>1.043151135206346</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.027508475955994</v>
+        <v>1.027508475955997</v>
       </c>
       <c r="D4">
-        <v>1.045869634043711</v>
+        <v>1.045869634043714</v>
       </c>
       <c r="E4">
-        <v>1.027818132883747</v>
+        <v>1.027818132883749</v>
       </c>
       <c r="F4">
-        <v>1.051009947770861</v>
+        <v>1.051009947770864</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.060711722548454</v>
+        <v>1.060711722548456</v>
       </c>
       <c r="J4">
-        <v>1.046233759940402</v>
+        <v>1.046233759940405</v>
       </c>
       <c r="K4">
-        <v>1.055444263373197</v>
+        <v>1.055444263373199</v>
       </c>
       <c r="L4">
-        <v>1.037592021681275</v>
+        <v>1.037592021681277</v>
       </c>
       <c r="M4">
-        <v>1.060529370158284</v>
+        <v>1.060529370158286</v>
       </c>
       <c r="N4">
-        <v>1.047719531884208</v>
+        <v>1.04771953188421</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.029878120539369</v>
+        <v>1.029878120539368</v>
       </c>
       <c r="D5">
-        <v>1.047760145579088</v>
+        <v>1.047760145579087</v>
       </c>
       <c r="E5">
-        <v>1.029876662491182</v>
+        <v>1.029876662491181</v>
       </c>
       <c r="F5">
-        <v>1.053049868431096</v>
+        <v>1.053049868431095</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.061585688788862</v>
+        <v>1.061585688788861</v>
       </c>
       <c r="J5">
-        <v>1.048111869848513</v>
+        <v>1.048111869848512</v>
       </c>
       <c r="K5">
-        <v>1.057103369057126</v>
+        <v>1.057103369057125</v>
       </c>
       <c r="L5">
         <v>1.039411487687369</v>
       </c>
       <c r="M5">
-        <v>1.062337941190687</v>
+        <v>1.062337941190686</v>
       </c>
       <c r="N5">
-        <v>1.04960030892381</v>
+        <v>1.049600308923809</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -588,7 +588,7 @@
         <v>1.030273264581439</v>
       </c>
       <c r="D6">
-        <v>1.04807542334811</v>
+        <v>1.048075423348111</v>
       </c>
       <c r="E6">
         <v>1.03021992396364</v>
@@ -603,7 +603,7 @@
         <v>1.061731202808998</v>
       </c>
       <c r="J6">
-        <v>1.048424958746777</v>
+        <v>1.048424958746776</v>
       </c>
       <c r="K6">
         <v>1.057379922391228</v>
@@ -612,10 +612,10 @@
         <v>1.039714760645937</v>
       </c>
       <c r="M6">
-        <v>1.062639480766655</v>
+        <v>1.062639480766656</v>
       </c>
       <c r="N6">
-        <v>1.049913842444221</v>
+        <v>1.04991384244422</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.027540324196069</v>
+        <v>1.02754032419607</v>
       </c>
       <c r="D7">
-        <v>1.04589504056079</v>
+        <v>1.045895040560791</v>
       </c>
       <c r="E7">
-        <v>1.027845799883272</v>
+        <v>1.027845799883273</v>
       </c>
       <c r="F7">
-        <v>1.051037358686589</v>
+        <v>1.05103735868659</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.060723483641973</v>
+        <v>1.060723483641974</v>
       </c>
       <c r="J7">
-        <v>1.046259007963217</v>
+        <v>1.046259007963218</v>
       </c>
       <c r="K7">
-        <v>1.055466569025365</v>
+        <v>1.055466569025367</v>
       </c>
       <c r="L7">
-        <v>1.037616484015155</v>
+        <v>1.037616484015156</v>
       </c>
       <c r="M7">
-        <v>1.060553680414968</v>
+        <v>1.06055368041497</v>
       </c>
       <c r="N7">
-        <v>1.04774481576211</v>
+        <v>1.047744815762111</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -708,13 +708,13 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9929966966518845</v>
+        <v>0.9929966966518846</v>
       </c>
       <c r="D9">
         <v>1.018384889155732</v>
       </c>
       <c r="E9">
-        <v>0.997845783629052</v>
+        <v>0.9978457836290521</v>
       </c>
       <c r="F9">
         <v>1.021405027625877</v>
@@ -749,16 +749,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9763282467452019</v>
+        <v>0.9763282467452004</v>
       </c>
       <c r="D10">
-        <v>1.005154700896301</v>
+        <v>1.005154700896299</v>
       </c>
       <c r="E10">
-        <v>0.9833858492523417</v>
+        <v>0.9833858492523402</v>
       </c>
       <c r="F10">
-        <v>1.007182432242529</v>
+        <v>1.007182432242528</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -767,19 +767,19 @@
         <v>1.041411713312699</v>
       </c>
       <c r="J10">
-        <v>1.005513585226202</v>
+        <v>1.0055135852262</v>
       </c>
       <c r="K10">
-        <v>1.019431505182823</v>
+        <v>1.019431505182822</v>
       </c>
       <c r="L10">
-        <v>0.9980616995617201</v>
+        <v>0.9980616995617185</v>
       </c>
       <c r="M10">
-        <v>1.021423205381181</v>
+        <v>1.02142320538118</v>
       </c>
       <c r="N10">
-        <v>1.006941529851243</v>
+        <v>1.006941529851242</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9686629802317194</v>
+        <v>0.9686629802317168</v>
       </c>
       <c r="D11">
-        <v>0.9990827781360569</v>
+        <v>0.9990827781360549</v>
       </c>
       <c r="E11">
-        <v>0.9767419883538995</v>
+        <v>0.9767419883538973</v>
       </c>
       <c r="F11">
-        <v>1.000659957333327</v>
+        <v>1.000659957333325</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038471370951543</v>
+        <v>1.038471370951541</v>
       </c>
       <c r="J11">
-        <v>0.9994001311209886</v>
+        <v>0.9994001311209861</v>
       </c>
       <c r="K11">
-        <v>1.014022012672152</v>
+        <v>1.01402201267215</v>
       </c>
       <c r="L11">
-        <v>0.9921162620405928</v>
+        <v>0.9921162620405908</v>
       </c>
       <c r="M11">
-        <v>1.015569438548391</v>
+        <v>1.015569438548389</v>
       </c>
       <c r="N11">
-        <v>1.000819393939977</v>
+        <v>1.000819393939975</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,16 +831,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9657396943356946</v>
+        <v>0.9657396943356951</v>
       </c>
       <c r="D12">
-        <v>0.9967693445618806</v>
+        <v>0.9967693445618808</v>
       </c>
       <c r="E12">
-        <v>0.9742093546359759</v>
+        <v>0.9742093546359764</v>
       </c>
       <c r="F12">
-        <v>0.9981755996168762</v>
+        <v>0.9981755996168766</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -849,19 +849,19 @@
         <v>1.037347721515741</v>
       </c>
       <c r="J12">
-        <v>0.9970682744779243</v>
+        <v>0.9970682744779249</v>
       </c>
       <c r="K12">
-        <v>1.011958701672029</v>
+        <v>1.01195870167203</v>
       </c>
       <c r="L12">
-        <v>0.9898479238168838</v>
+        <v>0.9898479238168839</v>
       </c>
       <c r="M12">
-        <v>1.013337835925048</v>
+        <v>1.013337835925049</v>
       </c>
       <c r="N12">
-        <v>0.9984842257930127</v>
+        <v>0.9984842257930129</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9663703508515996</v>
+        <v>0.9663703508516018</v>
       </c>
       <c r="D13">
-        <v>0.9972683284598162</v>
+        <v>0.9972683284598179</v>
       </c>
       <c r="E13">
-        <v>0.9747556785598304</v>
+        <v>0.9747556785598325</v>
       </c>
       <c r="F13">
-        <v>0.9987114167751794</v>
+        <v>0.9987114167751807</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037590232921453</v>
+        <v>1.037590232921454</v>
       </c>
       <c r="J13">
-        <v>0.9975713524513395</v>
+        <v>0.9975713524513417</v>
       </c>
       <c r="K13">
-        <v>1.012403840257483</v>
+        <v>1.012403840257484</v>
       </c>
       <c r="L13">
-        <v>0.9903373237468491</v>
+        <v>0.9903373237468512</v>
       </c>
       <c r="M13">
-        <v>1.013819228667826</v>
+        <v>1.013819228667827</v>
       </c>
       <c r="N13">
-        <v>0.9989880181948539</v>
+        <v>0.9989880181948561</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9684229490813014</v>
+        <v>0.9684229490812989</v>
       </c>
       <c r="D14">
-        <v>0.9988927751183748</v>
+        <v>0.9988927751183727</v>
       </c>
       <c r="E14">
-        <v>0.9765340093956119</v>
+        <v>0.9765340093956095</v>
       </c>
       <c r="F14">
-        <v>1.000455901310519</v>
+        <v>1.000455901310517</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038379153366098</v>
+        <v>1.038379153366097</v>
       </c>
       <c r="J14">
-        <v>0.9992086687467006</v>
+        <v>0.9992086687466983</v>
       </c>
       <c r="K14">
-        <v>1.01385259864721</v>
+        <v>1.013852598647208</v>
       </c>
       <c r="L14">
-        <v>0.9919300264457235</v>
+        <v>0.991930026445721</v>
       </c>
       <c r="M14">
-        <v>1.015386182700389</v>
+        <v>1.015386182700387</v>
       </c>
       <c r="N14">
-        <v>1.000627659667157</v>
+        <v>1.000627659667155</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,16 +954,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9696772516808269</v>
+        <v>0.9696772516808276</v>
       </c>
       <c r="D15">
-        <v>0.9998857431384464</v>
+        <v>0.999885743138447</v>
       </c>
       <c r="E15">
-        <v>0.97762086763972</v>
+        <v>0.9776208676397202</v>
       </c>
       <c r="F15">
-        <v>1.001522341182003</v>
+        <v>1.001522341182004</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -975,16 +975,16 @@
         <v>1.000209156958396</v>
       </c>
       <c r="K15">
-        <v>1.014737874907661</v>
+        <v>1.014737874907662</v>
       </c>
       <c r="L15">
-        <v>0.9929031790951575</v>
+        <v>0.9929031790951582</v>
       </c>
       <c r="M15">
         <v>1.016343837073835</v>
       </c>
       <c r="N15">
-        <v>1.00162956868687</v>
+        <v>1.001629568686871</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,13 +995,13 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9768268179219265</v>
+        <v>0.9768268179219268</v>
       </c>
       <c r="D16">
         <v>1.005549916621557</v>
       </c>
       <c r="E16">
-        <v>0.983818124143037</v>
+        <v>0.9838181241430378</v>
       </c>
       <c r="F16">
         <v>1.0076070750133</v>
@@ -1010,22 +1010,22 @@
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041602637112216</v>
+        <v>1.041602637112217</v>
       </c>
       <c r="J16">
         <v>1.005911158631301</v>
       </c>
       <c r="K16">
-        <v>1.01978329800054</v>
+        <v>1.019783298000541</v>
       </c>
       <c r="L16">
-        <v>0.998448268410538</v>
+        <v>0.9984482684105386</v>
       </c>
       <c r="M16">
-        <v>1.021804048132769</v>
+        <v>1.02180404813277</v>
       </c>
       <c r="N16">
-        <v>1.007339667856179</v>
+        <v>1.00733966785618</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,34 +1036,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.981185966254195</v>
+        <v>0.9811859662541942</v>
       </c>
       <c r="D17">
-        <v>1.00900680141626</v>
+        <v>1.009006801416259</v>
       </c>
       <c r="E17">
-        <v>0.9875982973642873</v>
+        <v>0.9875982973642864</v>
       </c>
       <c r="F17">
-        <v>1.011321902684648</v>
+        <v>1.011321902684647</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.043270111119552</v>
+        <v>1.043270111119551</v>
       </c>
       <c r="J17">
         <v>1.009386845351178</v>
       </c>
       <c r="K17">
-        <v>1.022858730485761</v>
+        <v>1.02285873048576</v>
       </c>
       <c r="L17">
-        <v>1.001827324575873</v>
+        <v>1.001827324575872</v>
       </c>
       <c r="M17">
-        <v>1.02513428798429</v>
+        <v>1.025134287984289</v>
       </c>
       <c r="N17">
         <v>1.010820290449866</v>
@@ -1077,16 +1077,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9836860582916271</v>
+        <v>0.9836860582916283</v>
       </c>
       <c r="D18">
         <v>1.010990529128216</v>
       </c>
       <c r="E18">
-        <v>0.9897668509685278</v>
+        <v>0.9897668509685286</v>
       </c>
       <c r="F18">
-        <v>1.013454107488795</v>
+        <v>1.013454107488796</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1095,19 +1095,19 @@
         <v>1.044224905875833</v>
       </c>
       <c r="J18">
-        <v>1.011379876744291</v>
+        <v>1.011379876744292</v>
       </c>
       <c r="K18">
-        <v>1.024622210616884</v>
+        <v>1.024622210616885</v>
       </c>
       <c r="L18">
-        <v>1.003764591136633</v>
+        <v>1.003764591136634</v>
       </c>
       <c r="M18">
-        <v>1.027044577512743</v>
+        <v>1.027044577512744</v>
       </c>
       <c r="N18">
-        <v>1.012816152176161</v>
+        <v>1.012816152176162</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9845315534289117</v>
+        <v>0.9845315534289104</v>
       </c>
       <c r="D19">
-        <v>1.011661575484103</v>
+        <v>1.011661575484102</v>
       </c>
       <c r="E19">
-        <v>0.9905003060653824</v>
+        <v>0.9905003060653811</v>
       </c>
       <c r="F19">
-        <v>1.014175457498277</v>
+        <v>1.014175457498276</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044547536326065</v>
+        <v>1.044547536326064</v>
       </c>
       <c r="J19">
-        <v>1.012053823164502</v>
+        <v>1.0120538231645</v>
       </c>
       <c r="K19">
-        <v>1.025218525394032</v>
+        <v>1.025218525394031</v>
       </c>
       <c r="L19">
-        <v>1.004419620318415</v>
+        <v>1.004419620318414</v>
       </c>
       <c r="M19">
-        <v>1.027690653440892</v>
+        <v>1.027690653440891</v>
       </c>
       <c r="N19">
-        <v>1.013491055677591</v>
+        <v>1.01349105567759</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,16 +1159,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9807227279181595</v>
+        <v>0.9807227279181597</v>
       </c>
       <c r="D20">
         <v>1.008639327066407</v>
       </c>
       <c r="E20">
-        <v>0.9871965298603477</v>
+        <v>0.9871965298603478</v>
       </c>
       <c r="F20">
-        <v>1.010926960876958</v>
+        <v>1.010926960876959</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1180,7 +1180,7 @@
         <v>1.009017528149523</v>
       </c>
       <c r="K20">
-        <v>1.022531946547648</v>
+        <v>1.022531946547649</v>
       </c>
       <c r="L20">
         <v>1.001468312001972</v>
@@ -1200,16 +1200,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9678206889017087</v>
+        <v>0.9678206889017088</v>
       </c>
       <c r="D21">
-        <v>0.9984160768154083</v>
+        <v>0.9984160768154077</v>
       </c>
       <c r="E21">
-        <v>0.9760121900319748</v>
+        <v>0.9760121900319749</v>
       </c>
       <c r="F21">
-        <v>0.9999439573031387</v>
+        <v>0.9999439573031382</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1218,16 +1218,16 @@
         <v>1.038147734781055</v>
       </c>
       <c r="J21">
-        <v>0.9987282666730535</v>
+        <v>0.9987282666730536</v>
       </c>
       <c r="K21">
-        <v>1.013427519369904</v>
+        <v>1.013427519369903</v>
       </c>
       <c r="L21">
-        <v>0.9914627298914023</v>
+        <v>0.9914627298914026</v>
       </c>
       <c r="M21">
-        <v>1.014926391508566</v>
+        <v>1.014926391508565</v>
       </c>
       <c r="N21">
         <v>1.000146575367463</v>
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9592629012764372</v>
+        <v>0.9592629012764404</v>
       </c>
       <c r="D22">
-        <v>0.9916482760945835</v>
+        <v>0.9916482760945863</v>
       </c>
       <c r="E22">
-        <v>0.9686004834752778</v>
+        <v>0.9686004834752802</v>
       </c>
       <c r="F22">
-        <v>0.9926775386038568</v>
+        <v>0.9926775386038598</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034854154101783</v>
+        <v>1.034854154101785</v>
       </c>
       <c r="J22">
-        <v>0.9919013851637318</v>
+        <v>0.9919013851637347</v>
       </c>
       <c r="K22">
-        <v>1.007387017921737</v>
+        <v>1.00738701792174</v>
       </c>
       <c r="L22">
-        <v>0.9848207333777621</v>
+        <v>0.9848207333777645</v>
       </c>
       <c r="M22">
-        <v>1.008395464049854</v>
+        <v>1.008395464049857</v>
       </c>
       <c r="N22">
-        <v>0.9933099989033434</v>
+        <v>0.9933099989033461</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9638452018151699</v>
+        <v>0.963845201815166</v>
       </c>
       <c r="D23">
-        <v>0.9952707514955098</v>
+        <v>0.9952707514955064</v>
       </c>
       <c r="E23">
-        <v>0.9725683836916996</v>
+        <v>0.9725683836916964</v>
       </c>
       <c r="F23">
-        <v>0.9965664940401207</v>
+        <v>0.996566494040117</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036618895918824</v>
+        <v>1.036618895918823</v>
       </c>
       <c r="J23">
-        <v>0.9955569889338901</v>
+        <v>0.9955569889338864</v>
       </c>
       <c r="K23">
-        <v>1.010621482647581</v>
+        <v>1.010621482647578</v>
       </c>
       <c r="L23">
-        <v>0.9883776453949513</v>
+        <v>0.988377645394948</v>
       </c>
       <c r="M23">
-        <v>1.011891881058831</v>
+        <v>1.011891881058828</v>
       </c>
       <c r="N23">
-        <v>0.996970794050159</v>
+        <v>0.9969707940501554</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9809321761550571</v>
+        <v>0.9809321761550585</v>
       </c>
       <c r="D24">
-        <v>1.008805473221128</v>
+        <v>1.008805473221129</v>
       </c>
       <c r="E24">
-        <v>0.9873781831207524</v>
+        <v>0.9873781831207536</v>
       </c>
       <c r="F24">
-        <v>1.011105524469798</v>
+        <v>1.011105524469799</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.043173123052122</v>
+        <v>1.043173123052123</v>
       </c>
       <c r="J24">
-        <v>1.009184512122791</v>
+        <v>1.009184512122792</v>
       </c>
       <c r="K24">
-        <v>1.02267969954969</v>
+        <v>1.022679699549691</v>
       </c>
       <c r="L24">
-        <v>1.001630637920544</v>
+        <v>1.001630637920545</v>
       </c>
       <c r="M24">
-        <v>1.024940381635563</v>
+        <v>1.024940381635564</v>
       </c>
       <c r="N24">
-        <v>1.010617669885087</v>
+        <v>1.010617669885088</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,13 +1364,13 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9991113198531776</v>
+        <v>0.9991113198531784</v>
       </c>
       <c r="D25">
         <v>1.023246413948304</v>
       </c>
       <c r="E25">
-        <v>1.003153718045811</v>
+        <v>1.003153718045812</v>
       </c>
       <c r="F25">
         <v>1.026635323663303</v>
@@ -1382,16 +1382,16 @@
         <v>1.050087339241464</v>
       </c>
       <c r="J25">
-        <v>1.023668628687444</v>
+        <v>1.023668628687445</v>
       </c>
       <c r="K25">
-        <v>1.035494267384117</v>
+        <v>1.035494267384118</v>
       </c>
       <c r="L25">
-        <v>1.015703273084207</v>
+        <v>1.015703273084208</v>
       </c>
       <c r="M25">
-        <v>1.038833766978117</v>
+        <v>1.038833766978118</v>
       </c>
       <c r="N25">
         <v>1.025122355556614</v>

--- a/Code/Results/Cases/Case_7_17/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_17/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,46 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.012535247839022</v>
+        <v>1.003491473833177</v>
       </c>
       <c r="D2">
-        <v>1.033932524154696</v>
+        <v>1.026095143614304</v>
       </c>
       <c r="E2">
-        <v>1.014811210516083</v>
+        <v>1.009333834300624</v>
       </c>
       <c r="F2">
-        <v>1.038140898841033</v>
+        <v>1.033495887420008</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.05514128943625</v>
+        <v>1.05112244236353</v>
       </c>
       <c r="J2">
-        <v>1.034347388560455</v>
+        <v>1.025568254668079</v>
       </c>
       <c r="K2">
-        <v>1.0449385308081</v>
+        <v>1.037202519089738</v>
       </c>
       <c r="L2">
-        <v>1.026067987148537</v>
+        <v>1.020664647689024</v>
       </c>
       <c r="M2">
-        <v>1.049093262961021</v>
+        <v>1.044507490982494</v>
       </c>
       <c r="N2">
-        <v>1.035816280493514</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.012073091281359</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.043797076783427</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +480,46 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.021757226106311</v>
+        <v>1.008358539751717</v>
       </c>
       <c r="D3">
-        <v>1.041282683810308</v>
+        <v>1.029542874067524</v>
       </c>
       <c r="E3">
-        <v>1.022821940938249</v>
+        <v>1.013257672867421</v>
       </c>
       <c r="F3">
-        <v>1.04606262988351</v>
+        <v>1.036813729382448</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.058581494019106</v>
+        <v>1.052436592184344</v>
       </c>
       <c r="J3">
-        <v>1.041671841709688</v>
+        <v>1.028623907352896</v>
       </c>
       <c r="K3">
-        <v>1.05141324835455</v>
+        <v>1.039811203339155</v>
       </c>
       <c r="L3">
-        <v>1.033170906382285</v>
+        <v>1.023723683708448</v>
       </c>
       <c r="M3">
-        <v>1.056138196012939</v>
+        <v>1.046996281392525</v>
       </c>
       <c r="N3">
-        <v>1.043151135206346</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.013127981176696</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.0457667759156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +527,46 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.027508475955997</v>
+        <v>1.01144021025728</v>
       </c>
       <c r="D4">
-        <v>1.045869634043714</v>
+        <v>1.031727368786199</v>
       </c>
       <c r="E4">
-        <v>1.027818132883749</v>
+        <v>1.015747994116169</v>
       </c>
       <c r="F4">
-        <v>1.051009947770864</v>
+        <v>1.038920044868284</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.060711722548456</v>
+        <v>1.053254955392256</v>
       </c>
       <c r="J4">
-        <v>1.046233759940405</v>
+        <v>1.030555733389348</v>
       </c>
       <c r="K4">
-        <v>1.055444263373199</v>
+        <v>1.041457378040076</v>
       </c>
       <c r="L4">
-        <v>1.037592021681277</v>
+        <v>1.025659998705487</v>
       </c>
       <c r="M4">
-        <v>1.060529370158286</v>
+        <v>1.048570379406001</v>
       </c>
       <c r="N4">
-        <v>1.04771953188421</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.013794319763377</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.047012558882331</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +574,46 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.029878120539368</v>
+        <v>1.012720146657889</v>
       </c>
       <c r="D5">
-        <v>1.047760145579087</v>
+        <v>1.03263496369237</v>
       </c>
       <c r="E5">
-        <v>1.029876662491181</v>
+        <v>1.016783679154461</v>
       </c>
       <c r="F5">
-        <v>1.053049868431095</v>
+        <v>1.039796141630468</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.061585688788861</v>
+        <v>1.053591504226979</v>
       </c>
       <c r="J5">
-        <v>1.048111869848512</v>
+        <v>1.031357351579291</v>
       </c>
       <c r="K5">
-        <v>1.057103369057125</v>
+        <v>1.042139705729194</v>
       </c>
       <c r="L5">
-        <v>1.039411487687369</v>
+        <v>1.026464043758192</v>
       </c>
       <c r="M5">
-        <v>1.062337941190686</v>
+        <v>1.049223693673851</v>
       </c>
       <c r="N5">
-        <v>1.049600308923809</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.014070674450597</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.047529608524092</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +621,46 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.030273264581439</v>
+        <v>1.012934155710947</v>
       </c>
       <c r="D6">
-        <v>1.048075423348111</v>
+        <v>1.032786731235442</v>
       </c>
       <c r="E6">
-        <v>1.03021992396364</v>
+        <v>1.016956927137272</v>
       </c>
       <c r="F6">
-        <v>1.05339011500017</v>
+        <v>1.039942699727523</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.061731202808998</v>
+        <v>1.053647577606656</v>
       </c>
       <c r="J6">
-        <v>1.048424958746776</v>
+        <v>1.031491339483456</v>
       </c>
       <c r="K6">
-        <v>1.057379922391228</v>
+        <v>1.042253709395876</v>
       </c>
       <c r="L6">
-        <v>1.039714760645937</v>
+        <v>1.026598470490329</v>
       </c>
       <c r="M6">
-        <v>1.062639480766656</v>
+        <v>1.049332900535091</v>
       </c>
       <c r="N6">
-        <v>1.04991384244422</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.014116857544457</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.047616037595378</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +668,46 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.02754032419607</v>
+        <v>1.01145737335173</v>
       </c>
       <c r="D7">
-        <v>1.045895040560791</v>
+        <v>1.031739537973706</v>
       </c>
       <c r="E7">
-        <v>1.027845799883273</v>
+        <v>1.015761876658418</v>
       </c>
       <c r="F7">
-        <v>1.05103735868659</v>
+        <v>1.038931787845569</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.060723483641974</v>
+        <v>1.053259481596489</v>
       </c>
       <c r="J7">
-        <v>1.046259007963218</v>
+        <v>1.030566485550221</v>
       </c>
       <c r="K7">
-        <v>1.055466569025367</v>
+        <v>1.04146653317526</v>
       </c>
       <c r="L7">
-        <v>1.037616484015156</v>
+        <v>1.025670781187389</v>
       </c>
       <c r="M7">
-        <v>1.06055368041497</v>
+        <v>1.048579141841083</v>
       </c>
       <c r="N7">
-        <v>1.047744815762111</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.013798027109293</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.04701949370024</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +715,46 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.015698827057887</v>
+        <v>1.005150697827304</v>
       </c>
       <c r="D8">
-        <v>1.0364532370466</v>
+        <v>1.027270145146758</v>
       </c>
       <c r="E8">
-        <v>1.017559142292053</v>
+        <v>1.010670240366133</v>
       </c>
       <c r="F8">
-        <v>1.040856853424458</v>
+        <v>1.034625755137795</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.056324624962414</v>
+        <v>1.051573289233608</v>
       </c>
       <c r="J8">
-        <v>1.036861237698708</v>
+        <v>1.026610537055701</v>
       </c>
       <c r="K8">
-        <v>1.047161067748788</v>
+        <v>1.038092972736755</v>
       </c>
       <c r="L8">
-        <v>1.028506402964319</v>
+        <v>1.021707590539435</v>
       </c>
       <c r="M8">
-        <v>1.051510434470201</v>
+        <v>1.045356268107983</v>
       </c>
       <c r="N8">
-        <v>1.038333699585886</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.012433031347065</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.044468823606021</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +762,46 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9929966966518846</v>
+        <v>0.9934909120398642</v>
       </c>
       <c r="D9">
-        <v>1.018384889155732</v>
+        <v>1.019022529439929</v>
       </c>
       <c r="E9">
-        <v>0.9978457836290521</v>
+        <v>1.00130614871796</v>
       </c>
       <c r="F9">
-        <v>1.021405027625877</v>
+        <v>1.026712685010224</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.047769736936403</v>
+        <v>1.048349185383834</v>
       </c>
       <c r="J9">
-        <v>1.018799206777358</v>
+        <v>1.019275635511245</v>
       </c>
       <c r="K9">
-        <v>1.03118656386074</v>
+        <v>1.031814338445812</v>
       </c>
       <c r="L9">
-        <v>1.010973908449542</v>
+        <v>1.014378070056305</v>
       </c>
       <c r="M9">
-        <v>1.034160113248165</v>
+        <v>1.039386740299605</v>
       </c>
       <c r="N9">
-        <v>1.020246018508884</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.009897813226192</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.039744353068498</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +809,46 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9763282467452004</v>
+        <v>0.9853884183640997</v>
       </c>
       <c r="D10">
-        <v>1.005154700896299</v>
+        <v>1.013327566574376</v>
       </c>
       <c r="E10">
-        <v>0.9833858492523402</v>
+        <v>0.9948480145864436</v>
       </c>
       <c r="F10">
-        <v>1.007182432242528</v>
+        <v>1.021322085661667</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.041411713312699</v>
+        <v>1.046062622712511</v>
       </c>
       <c r="J10">
-        <v>1.0055135852262</v>
+        <v>1.014193996575554</v>
       </c>
       <c r="K10">
-        <v>1.019431505182822</v>
+        <v>1.027460286108571</v>
       </c>
       <c r="L10">
-        <v>0.9980616995617185</v>
+        <v>1.009310916969361</v>
       </c>
       <c r="M10">
-        <v>1.02142320538118</v>
+        <v>1.035316747117233</v>
       </c>
       <c r="N10">
-        <v>1.006941529851242</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.00815382914299</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.036574773191733</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +856,46 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9686629802317168</v>
+        <v>0.9824090424438645</v>
       </c>
       <c r="D11">
-        <v>0.9990827781360549</v>
+        <v>1.011400992689455</v>
       </c>
       <c r="E11">
-        <v>0.9767419883538973</v>
+        <v>0.9925833543777373</v>
       </c>
       <c r="F11">
-        <v>1.000659957333325</v>
+        <v>1.019911369907287</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038471370951541</v>
+        <v>1.045375517224325</v>
       </c>
       <c r="J11">
-        <v>0.9994001311209861</v>
+        <v>1.012532389082458</v>
       </c>
       <c r="K11">
-        <v>1.01402201267215</v>
+        <v>1.026111058839545</v>
       </c>
       <c r="L11">
-        <v>0.9921162620405908</v>
+        <v>1.007646506372125</v>
       </c>
       <c r="M11">
-        <v>1.015569438548389</v>
+        <v>1.034467308486647</v>
       </c>
       <c r="N11">
-        <v>1.000819393939975</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.007710429666431</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.036339824735155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +903,46 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9657396943356951</v>
+        <v>0.9815011388675583</v>
       </c>
       <c r="D12">
-        <v>0.9967693445618808</v>
+        <v>1.010877607007005</v>
       </c>
       <c r="E12">
-        <v>0.9742093546359764</v>
+        <v>0.9919408791242459</v>
       </c>
       <c r="F12">
-        <v>0.9981755996168766</v>
+        <v>1.019720664104789</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037347721515741</v>
+        <v>1.045230114808726</v>
       </c>
       <c r="J12">
-        <v>0.9970682744779249</v>
+        <v>1.01210957534204</v>
       </c>
       <c r="K12">
-        <v>1.01195870167203</v>
+        <v>1.025799334855437</v>
       </c>
       <c r="L12">
-        <v>0.9898479238168839</v>
+        <v>1.007224125230136</v>
       </c>
       <c r="M12">
-        <v>1.013337835925049</v>
+        <v>1.034479554991489</v>
       </c>
       <c r="N12">
-        <v>0.9984842257930129</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.007667862757463</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.036676614225164</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +950,46 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9663703508516018</v>
+        <v>0.9821375660754773</v>
       </c>
       <c r="D13">
-        <v>0.9972683284598179</v>
+        <v>1.011409019868225</v>
       </c>
       <c r="E13">
-        <v>0.9747556785598325</v>
+        <v>0.9925092637329633</v>
       </c>
       <c r="F13">
-        <v>0.9987114167751807</v>
+        <v>1.02047433471365</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037590232921454</v>
+        <v>1.045502905147027</v>
       </c>
       <c r="J13">
-        <v>0.9975713524513417</v>
+        <v>1.012622152904341</v>
       </c>
       <c r="K13">
-        <v>1.012403840257484</v>
+        <v>1.026277546068441</v>
       </c>
       <c r="L13">
-        <v>0.9903373237468512</v>
+        <v>1.007736873819121</v>
       </c>
       <c r="M13">
-        <v>1.013819228667827</v>
+        <v>1.035176763507606</v>
       </c>
       <c r="N13">
-        <v>0.9989880181948561</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.007933583032794</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.037505027826747</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +997,46 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9684229490812989</v>
+        <v>0.983276894763075</v>
       </c>
       <c r="D14">
-        <v>0.9988927751183727</v>
+        <v>1.012253618112992</v>
       </c>
       <c r="E14">
-        <v>0.9765340093956095</v>
+        <v>0.9934501317636319</v>
       </c>
       <c r="F14">
-        <v>1.000455901310517</v>
+        <v>1.021424697307568</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038379153366097</v>
+        <v>1.045880153364138</v>
       </c>
       <c r="J14">
-        <v>0.9992086687466983</v>
+        <v>1.013398986340744</v>
       </c>
       <c r="K14">
-        <v>1.013852598647208</v>
+        <v>1.026964761489323</v>
       </c>
       <c r="L14">
-        <v>0.991930026445721</v>
+        <v>1.00851376776891</v>
       </c>
       <c r="M14">
-        <v>1.015386182700387</v>
+        <v>1.035970032402616</v>
       </c>
       <c r="N14">
-        <v>1.000627659667155</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.008256330700007</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.038305627610423</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1044,46 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9696772516808276</v>
+        <v>0.9838973529099649</v>
       </c>
       <c r="D15">
-        <v>0.999885743138447</v>
+        <v>1.012697886377874</v>
       </c>
       <c r="E15">
-        <v>0.9776208676397202</v>
+        <v>0.9939497631208808</v>
       </c>
       <c r="F15">
-        <v>1.001522341182004</v>
+        <v>1.021877683172377</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038860952047281</v>
+        <v>1.046068397897754</v>
       </c>
       <c r="J15">
-        <v>1.000209156958396</v>
+        <v>1.013800462703052</v>
       </c>
       <c r="K15">
-        <v>1.014737874907662</v>
+        <v>1.027313627267032</v>
       </c>
       <c r="L15">
-        <v>0.9929031790951582</v>
+        <v>1.00891411938744</v>
       </c>
       <c r="M15">
-        <v>1.016343837073835</v>
+        <v>1.036328780724385</v>
       </c>
       <c r="N15">
-        <v>1.001629568686871</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.008405583110359</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.038626755035473</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1091,46 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9768268179219268</v>
+        <v>0.987223642645402</v>
       </c>
       <c r="D16">
-        <v>1.005549916621557</v>
+        <v>1.015026233394929</v>
       </c>
       <c r="E16">
-        <v>0.9838181241430378</v>
+        <v>0.9965806245873103</v>
       </c>
       <c r="F16">
-        <v>1.0076070750133</v>
+        <v>1.024057927858153</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041602637112217</v>
+        <v>1.047012211596915</v>
       </c>
       <c r="J16">
-        <v>1.005911158631301</v>
+        <v>1.015875061086304</v>
       </c>
       <c r="K16">
-        <v>1.019783298000541</v>
+        <v>1.029093485997531</v>
       </c>
       <c r="L16">
-        <v>0.9984482684105386</v>
+        <v>1.010975032403474</v>
       </c>
       <c r="M16">
-        <v>1.02180404813277</v>
+        <v>1.037970539328637</v>
       </c>
       <c r="N16">
-        <v>1.00733966785618</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.009098564874252</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.039885652911994</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1138,46 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9811859662541942</v>
+        <v>0.9891773590402974</v>
       </c>
       <c r="D17">
-        <v>1.009006801416259</v>
+        <v>1.016368861750473</v>
       </c>
       <c r="E17">
-        <v>0.9875982973642864</v>
+        <v>0.9981072469192078</v>
       </c>
       <c r="F17">
-        <v>1.011321902684647</v>
+        <v>1.025226711436438</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.043270111119551</v>
+        <v>1.047534176778594</v>
       </c>
       <c r="J17">
-        <v>1.009386845351178</v>
+        <v>1.017057883755779</v>
       </c>
       <c r="K17">
-        <v>1.02285873048576</v>
+        <v>1.030095846190143</v>
       </c>
       <c r="L17">
-        <v>1.001827324575872</v>
+        <v>1.01214854454217</v>
       </c>
       <c r="M17">
-        <v>1.025134287984289</v>
+        <v>1.038806424732799</v>
       </c>
       <c r="N17">
-        <v>1.010820290449866</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.009460571979766</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.040417262026951</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1185,46 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9836860582916283</v>
+        <v>0.9901189553854145</v>
       </c>
       <c r="D18">
-        <v>1.010990529128216</v>
+        <v>1.016964677965072</v>
       </c>
       <c r="E18">
-        <v>0.9897668509685286</v>
+        <v>0.9988076283079829</v>
       </c>
       <c r="F18">
-        <v>1.013454107488796</v>
+        <v>1.025586586667943</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044224905875833</v>
+        <v>1.047729611456312</v>
       </c>
       <c r="J18">
-        <v>1.011379876744292</v>
+        <v>1.017560525063562</v>
       </c>
       <c r="K18">
-        <v>1.024622210616885</v>
+        <v>1.030496866120266</v>
       </c>
       <c r="L18">
-        <v>1.003764591136634</v>
+        <v>1.012646975430546</v>
       </c>
       <c r="M18">
-        <v>1.027044577512744</v>
+        <v>1.038977809346229</v>
       </c>
       <c r="N18">
-        <v>1.012816152176162</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.009560008123469</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.040314955004945</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1232,46 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9845315534289104</v>
+        <v>0.9901171223844139</v>
       </c>
       <c r="D19">
-        <v>1.011661575484102</v>
+        <v>1.016856638063893</v>
       </c>
       <c r="E19">
-        <v>0.9905003060653811</v>
+        <v>0.9987362322108526</v>
       </c>
       <c r="F19">
-        <v>1.014175457498276</v>
+        <v>1.025186223819158</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044547536326064</v>
+        <v>1.047616911941657</v>
       </c>
       <c r="J19">
-        <v>1.0120538231645</v>
+        <v>1.017421918619789</v>
       </c>
       <c r="K19">
-        <v>1.025218525394031</v>
+        <v>1.030327593953321</v>
       </c>
       <c r="L19">
-        <v>1.004419620318414</v>
+        <v>1.012512154874699</v>
       </c>
       <c r="M19">
-        <v>1.027690653440891</v>
+        <v>1.03852163392811</v>
       </c>
       <c r="N19">
-        <v>1.01349105567759</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.009416935196617</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.039628571764994</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1279,46 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9807227279181597</v>
+        <v>0.987496387283452</v>
       </c>
       <c r="D20">
-        <v>1.008639327066407</v>
+        <v>1.014808855512473</v>
       </c>
       <c r="E20">
-        <v>0.9871965298603478</v>
+        <v>0.9965257983811306</v>
       </c>
       <c r="F20">
-        <v>1.010926960876959</v>
+        <v>1.02272517180672</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.043093071793271</v>
+        <v>1.046663321391138</v>
       </c>
       <c r="J20">
-        <v>1.009017528149523</v>
+        <v>1.01551795897631</v>
       </c>
       <c r="K20">
-        <v>1.022531946547649</v>
+        <v>1.028596212968578</v>
       </c>
       <c r="L20">
-        <v>1.001468312001972</v>
+        <v>1.010630013768916</v>
       </c>
       <c r="M20">
-        <v>1.024780356034086</v>
+        <v>1.036379859448764</v>
       </c>
       <c r="N20">
-        <v>1.010450448775423</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.008608963530855</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.037405543372399</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1326,46 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9678206889017088</v>
+        <v>0.9812594521162827</v>
       </c>
       <c r="D21">
-        <v>0.9984160768154077</v>
+        <v>1.010399338584571</v>
       </c>
       <c r="E21">
-        <v>0.9760121900319749</v>
+        <v>0.991549651724621</v>
       </c>
       <c r="F21">
-        <v>0.9999439573031382</v>
+        <v>1.018479818662696</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038147734781055</v>
+        <v>1.044847318018643</v>
       </c>
       <c r="J21">
-        <v>0.9987282666730536</v>
+        <v>1.011562155412371</v>
       </c>
       <c r="K21">
-        <v>1.013427519369903</v>
+        <v>1.02518633485171</v>
       </c>
       <c r="L21">
-        <v>0.9914627298914026</v>
+        <v>1.006692906784029</v>
       </c>
       <c r="M21">
-        <v>1.014926391508565</v>
+        <v>1.033119343873337</v>
       </c>
       <c r="N21">
-        <v>1.000146575367463</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.007227448429326</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.034784106588565</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1373,46 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9592629012764404</v>
+        <v>0.9772781253393696</v>
       </c>
       <c r="D22">
-        <v>0.9916482760945863</v>
+        <v>1.00760017132919</v>
       </c>
       <c r="E22">
-        <v>0.9686004834752802</v>
+        <v>0.9883883965164644</v>
       </c>
       <c r="F22">
-        <v>0.9926775386038598</v>
+        <v>1.015815412917769</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034854154101785</v>
+        <v>1.043685908741658</v>
       </c>
       <c r="J22">
-        <v>0.9919013851637347</v>
+        <v>1.009049044559216</v>
       </c>
       <c r="K22">
-        <v>1.00738701792174</v>
+        <v>1.023022556056845</v>
       </c>
       <c r="L22">
-        <v>0.9848207333777645</v>
+        <v>1.004193445233173</v>
       </c>
       <c r="M22">
-        <v>1.008395464049857</v>
+        <v>1.031079941950981</v>
       </c>
       <c r="N22">
-        <v>0.9933099989033461</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.006356763127632</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.033170041922034</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1420,46 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.963845201815166</v>
+        <v>0.9793985053212799</v>
       </c>
       <c r="D23">
-        <v>0.9952707514955064</v>
+        <v>1.009090449162427</v>
       </c>
       <c r="E23">
-        <v>0.9725683836916964</v>
+        <v>0.9900711418623209</v>
       </c>
       <c r="F23">
-        <v>0.996566494040117</v>
+        <v>1.01723347397163</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036618895918823</v>
+        <v>1.044305640056734</v>
       </c>
       <c r="J23">
-        <v>0.9955569889338864</v>
+        <v>1.010387576482633</v>
       </c>
       <c r="K23">
-        <v>1.010621482647578</v>
+        <v>1.024175257325225</v>
       </c>
       <c r="L23">
-        <v>0.988377645394948</v>
+        <v>1.005524452011458</v>
       </c>
       <c r="M23">
-        <v>1.011891881058828</v>
+        <v>1.032166001821001</v>
       </c>
       <c r="N23">
-        <v>0.9969707940501554</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.006820539743155</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.034029593824141</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1467,46 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9809321761550585</v>
+        <v>0.9875348273301664</v>
       </c>
       <c r="D24">
-        <v>1.008805473221129</v>
+        <v>1.014819304199666</v>
       </c>
       <c r="E24">
-        <v>0.9873781831207536</v>
+        <v>0.9965468210588179</v>
       </c>
       <c r="F24">
-        <v>1.011105524469799</v>
+        <v>1.022694873986594</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.043173123052123</v>
+        <v>1.04665738219277</v>
       </c>
       <c r="J24">
-        <v>1.009184512122792</v>
+        <v>1.01552130371406</v>
       </c>
       <c r="K24">
-        <v>1.022679699549691</v>
+        <v>1.028591079976768</v>
       </c>
       <c r="L24">
-        <v>1.001630637920545</v>
+        <v>1.010634850987975</v>
       </c>
       <c r="M24">
-        <v>1.024940381635564</v>
+        <v>1.036334828803275</v>
       </c>
       <c r="N24">
-        <v>1.010617669885088</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.008598521532199</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.037328963138155</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1514,43 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9991113198531784</v>
+        <v>0.9965742367642749</v>
       </c>
       <c r="D25">
-        <v>1.023246413948304</v>
+        <v>1.021201245771065</v>
       </c>
       <c r="E25">
-        <v>1.003153718045812</v>
+        <v>1.003776282902789</v>
       </c>
       <c r="F25">
-        <v>1.026635323663303</v>
+        <v>1.02879912162734</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.050087339241464</v>
+        <v>1.049213820215243</v>
       </c>
       <c r="J25">
-        <v>1.023668628687445</v>
+        <v>1.021217444092676</v>
       </c>
       <c r="K25">
-        <v>1.035494267384118</v>
+        <v>1.03347911913378</v>
       </c>
       <c r="L25">
-        <v>1.015703273084208</v>
+        <v>1.016316258429541</v>
       </c>
       <c r="M25">
-        <v>1.038833766978118</v>
+        <v>1.040966232659787</v>
       </c>
       <c r="N25">
-        <v>1.025122355556614</v>
+        <v>1.010569435836062</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.040994415596678</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_17/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_17/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,46 +439,55 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.003491473833177</v>
+        <v>1.003208522588438</v>
       </c>
       <c r="D2">
-        <v>1.026095143614304</v>
+        <v>1.025325801830795</v>
       </c>
       <c r="E2">
-        <v>1.009333834300624</v>
+        <v>1.009127387823801</v>
       </c>
       <c r="F2">
-        <v>1.033495887420008</v>
+        <v>1.032992362543541</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.05112244236353</v>
+        <v>1.050725308621709</v>
       </c>
       <c r="J2">
-        <v>1.025568254668079</v>
+        <v>1.025293688982113</v>
       </c>
       <c r="K2">
-        <v>1.037202519089738</v>
+        <v>1.036443232628969</v>
       </c>
       <c r="L2">
-        <v>1.020664647689024</v>
+        <v>1.020461011495206</v>
       </c>
       <c r="M2">
-        <v>1.044507490982494</v>
+        <v>1.044010427746781</v>
       </c>
       <c r="N2">
-        <v>1.012073091281359</v>
+        <v>1.013684849081807</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.043797076783427</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.043403686242054</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.021695380082519</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -480,46 +495,55 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.008358539751717</v>
+        <v>1.00772048999987</v>
       </c>
       <c r="D3">
-        <v>1.029542874067524</v>
+        <v>1.02839086416803</v>
       </c>
       <c r="E3">
-        <v>1.013257672867421</v>
+        <v>1.012737861290935</v>
       </c>
       <c r="F3">
-        <v>1.036813729382448</v>
+        <v>1.036028432388594</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.019999999999999</v>
+      </c>
       <c r="I3">
-        <v>1.052436592184344</v>
+        <v>1.051839854047181</v>
       </c>
       <c r="J3">
-        <v>1.028623907352896</v>
+        <v>1.028002876709317</v>
       </c>
       <c r="K3">
-        <v>1.039811203339155</v>
+        <v>1.03867292217442</v>
       </c>
       <c r="L3">
-        <v>1.023723683708448</v>
+        <v>1.023210312338554</v>
       </c>
       <c r="M3">
-        <v>1.046996281392525</v>
+        <v>1.046220177102231</v>
       </c>
       <c r="N3">
-        <v>1.013127981176696</v>
+        <v>1.014423801654676</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.0457667759156</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.045152545594563</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.022191499287654</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -527,46 +551,55 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.01144021025728</v>
+        <v>1.010580483259647</v>
       </c>
       <c r="D4">
-        <v>1.031727368786199</v>
+        <v>1.030335099286535</v>
       </c>
       <c r="E4">
-        <v>1.015747994116169</v>
+        <v>1.015032334163152</v>
       </c>
       <c r="F4">
-        <v>1.038920044868284</v>
+        <v>1.037958125090367</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.019999999999999</v>
+      </c>
       <c r="I4">
-        <v>1.053254955392256</v>
+        <v>1.052532669139895</v>
       </c>
       <c r="J4">
-        <v>1.030555733389348</v>
+        <v>1.029717357597498</v>
       </c>
       <c r="K4">
-        <v>1.041457378040076</v>
+        <v>1.040080689181231</v>
       </c>
       <c r="L4">
-        <v>1.025659998705487</v>
+        <v>1.024952655391819</v>
       </c>
       <c r="M4">
-        <v>1.048570379406001</v>
+        <v>1.047619036407286</v>
       </c>
       <c r="N4">
-        <v>1.013794319763377</v>
+        <v>1.014891195640661</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.047012558882331</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.046259641023028</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.022502025259939</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -574,46 +607,55 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.012720146657889</v>
+        <v>1.011769055561519</v>
       </c>
       <c r="D5">
-        <v>1.03263496369237</v>
+        <v>1.03114336378976</v>
       </c>
       <c r="E5">
-        <v>1.016783679154461</v>
+        <v>1.015987257137878</v>
       </c>
       <c r="F5">
-        <v>1.039796141630468</v>
+        <v>1.038761265401751</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.053591504226979</v>
+        <v>1.052817259211696</v>
       </c>
       <c r="J5">
-        <v>1.031357351579291</v>
+        <v>1.030429162488941</v>
       </c>
       <c r="K5">
-        <v>1.042139705729194</v>
+        <v>1.040664349293817</v>
       </c>
       <c r="L5">
-        <v>1.026464043758192</v>
+        <v>1.025676623768834</v>
       </c>
       <c r="M5">
-        <v>1.049223693673851</v>
+        <v>1.048199891728082</v>
       </c>
       <c r="N5">
-        <v>1.014070674450597</v>
+        <v>1.01508518267695</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.047529608524092</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.046719345285604</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.022630111999272</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -621,46 +663,55 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.012934155710947</v>
+        <v>1.011967828407206</v>
       </c>
       <c r="D6">
-        <v>1.032786731235442</v>
+        <v>1.03127854914331</v>
       </c>
       <c r="E6">
-        <v>1.016956927137272</v>
+        <v>1.016147034691633</v>
       </c>
       <c r="F6">
-        <v>1.039942699727523</v>
+        <v>1.038895647835944</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.053647577606656</v>
+        <v>1.052864655484868</v>
       </c>
       <c r="J6">
-        <v>1.031491339483456</v>
+        <v>1.030548159536251</v>
       </c>
       <c r="K6">
-        <v>1.042253709395876</v>
+        <v>1.040761875554884</v>
       </c>
       <c r="L6">
-        <v>1.026598470490329</v>
+        <v>1.025797689351016</v>
       </c>
       <c r="M6">
-        <v>1.049332900535091</v>
+        <v>1.048297001717222</v>
       </c>
       <c r="N6">
-        <v>1.014116857544457</v>
+        <v>1.015117609009389</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.047616037595378</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.046796200671268</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.022651475699371</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -668,46 +719,55 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.01145737335173</v>
+        <v>1.010608089724098</v>
       </c>
       <c r="D7">
-        <v>1.031739537973706</v>
+        <v>1.03035438725829</v>
       </c>
       <c r="E7">
-        <v>1.015761876658418</v>
+        <v>1.015055956512945</v>
       </c>
       <c r="F7">
-        <v>1.038931787845569</v>
+        <v>1.037975810917132</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.053259481596489</v>
+        <v>1.052540940669296</v>
       </c>
       <c r="J7">
-        <v>1.030566485550221</v>
+        <v>1.02973828481217</v>
       </c>
       <c r="K7">
-        <v>1.04146653317526</v>
+        <v>1.040096877686433</v>
       </c>
       <c r="L7">
-        <v>1.025670781187389</v>
+        <v>1.024973061374952</v>
       </c>
       <c r="M7">
-        <v>1.048579141841083</v>
+        <v>1.047633672484431</v>
       </c>
       <c r="N7">
-        <v>1.013798027109293</v>
+        <v>1.014923606980225</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.04701949370024</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.046271224405081</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.022506571350229</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -715,46 +775,55 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.005150697827304</v>
+        <v>1.004782079872965</v>
       </c>
       <c r="D8">
-        <v>1.027270145146758</v>
+        <v>1.026396118437762</v>
       </c>
       <c r="E8">
-        <v>1.010670240366133</v>
+        <v>1.010389992706055</v>
       </c>
       <c r="F8">
-        <v>1.034625755137795</v>
+        <v>1.034047248636972</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.051573289233608</v>
+        <v>1.051121684361847</v>
       </c>
       <c r="J8">
-        <v>1.026610537055701</v>
+        <v>1.026252467766801</v>
       </c>
       <c r="K8">
-        <v>1.038092972736755</v>
+        <v>1.037230025068846</v>
       </c>
       <c r="L8">
-        <v>1.021707590539435</v>
+        <v>1.021431040424906</v>
       </c>
       <c r="M8">
-        <v>1.045356268107983</v>
+        <v>1.04478496270655</v>
       </c>
       <c r="N8">
-        <v>1.012433031347065</v>
+        <v>1.014027838313806</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.044468823606021</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.044016676017546</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.021874087772243</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -762,46 +831,55 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9934909120398642</v>
+        <v>0.9939992857653204</v>
       </c>
       <c r="D9">
-        <v>1.019022529439929</v>
+        <v>1.019082573574201</v>
       </c>
       <c r="E9">
-        <v>1.00130614871796</v>
+        <v>1.001798444380705</v>
       </c>
       <c r="F9">
-        <v>1.026712685010224</v>
+        <v>1.026824229374304</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.048349185383834</v>
+        <v>1.048383429864243</v>
       </c>
       <c r="J9">
-        <v>1.019275635511245</v>
+        <v>1.019765738898066</v>
       </c>
       <c r="K9">
-        <v>1.031814338445812</v>
+        <v>1.031873454377388</v>
       </c>
       <c r="L9">
-        <v>1.014378070056305</v>
+        <v>1.014862410313647</v>
       </c>
       <c r="M9">
-        <v>1.039386740299605</v>
+        <v>1.039496593203552</v>
       </c>
       <c r="N9">
-        <v>1.009897813226192</v>
+        <v>1.012267601759144</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.039744353068498</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.039831294362562</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.020667557347802</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -809,46 +887,55 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9853884183640997</v>
+        <v>0.986572191474804</v>
       </c>
       <c r="D10">
-        <v>1.013327566574376</v>
+        <v>1.014081804982564</v>
       </c>
       <c r="E10">
-        <v>0.9948480145864436</v>
+        <v>0.9959343147537106</v>
       </c>
       <c r="F10">
-        <v>1.021322085661667</v>
+        <v>1.021951284846137</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.046062622712511</v>
+        <v>1.046456741762157</v>
       </c>
       <c r="J10">
-        <v>1.014193996575554</v>
+        <v>1.015328883185745</v>
       </c>
       <c r="K10">
-        <v>1.027460286108571</v>
+        <v>1.028201379107353</v>
       </c>
       <c r="L10">
-        <v>1.009310916969361</v>
+        <v>1.010377366472018</v>
       </c>
       <c r="M10">
-        <v>1.035316747117233</v>
+        <v>1.035935199041581</v>
       </c>
       <c r="N10">
-        <v>1.00815382914299</v>
+        <v>1.011187295016609</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.036574773191733</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.037064208303565</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.01983891804499</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -856,46 +943,55 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9824090424438645</v>
+        <v>0.9838540398235355</v>
       </c>
       <c r="D11">
-        <v>1.011400992689455</v>
+        <v>1.012414012990762</v>
       </c>
       <c r="E11">
-        <v>0.9925833543777373</v>
+        <v>0.9938895289228461</v>
       </c>
       <c r="F11">
-        <v>1.019911369907287</v>
+        <v>1.020735914329949</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.045375517224325</v>
+        <v>1.04590371382757</v>
       </c>
       <c r="J11">
-        <v>1.012532389082458</v>
+        <v>1.013914284902308</v>
       </c>
       <c r="K11">
-        <v>1.026111058839545</v>
+        <v>1.027105555928511</v>
       </c>
       <c r="L11">
-        <v>1.007646506372125</v>
+        <v>1.008927607173244</v>
       </c>
       <c r="M11">
-        <v>1.034467308486647</v>
+        <v>1.035277097303352</v>
       </c>
       <c r="N11">
-        <v>1.007710429666431</v>
+        <v>1.011119082605999</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.036339824735155</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.036980358059687</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.019656805703385</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -903,46 +999,55 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9815011388675583</v>
+        <v>0.9830070214901553</v>
       </c>
       <c r="D12">
-        <v>1.010877607007005</v>
+        <v>1.011954050197304</v>
       </c>
       <c r="E12">
-        <v>0.9919408791242459</v>
+        <v>0.9932905391984248</v>
       </c>
       <c r="F12">
-        <v>1.019720664104789</v>
+        <v>1.020592991411121</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.045230114808726</v>
+        <v>1.045791149793347</v>
       </c>
       <c r="J12">
-        <v>1.01210957534204</v>
+        <v>1.013548381935612</v>
       </c>
       <c r="K12">
-        <v>1.025799334855437</v>
+        <v>1.02685575788737</v>
       </c>
       <c r="L12">
-        <v>1.007224125230136</v>
+        <v>1.008547420754383</v>
       </c>
       <c r="M12">
-        <v>1.034479554991489</v>
+        <v>1.035336018105176</v>
       </c>
       <c r="N12">
-        <v>1.007667862757463</v>
+        <v>1.011186960452813</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.036676614225164</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.03735383619263</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.019645709265524</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -950,46 +1055,55 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9821375660754773</v>
+        <v>0.9835365105568331</v>
       </c>
       <c r="D13">
-        <v>1.011409019868225</v>
+        <v>1.012389837840652</v>
       </c>
       <c r="E13">
-        <v>0.9925092637329633</v>
+        <v>0.9937543595870666</v>
       </c>
       <c r="F13">
-        <v>1.02047433471365</v>
+        <v>1.021273613407261</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.045502905147027</v>
+        <v>1.046014411747665</v>
       </c>
       <c r="J13">
-        <v>1.012622152904341</v>
+        <v>1.013959119058518</v>
       </c>
       <c r="K13">
-        <v>1.026277546068441</v>
+        <v>1.027240206120008</v>
       </c>
       <c r="L13">
-        <v>1.007736873819121</v>
+        <v>1.0089577626597</v>
       </c>
       <c r="M13">
-        <v>1.035176763507606</v>
+        <v>1.035961581498875</v>
       </c>
       <c r="N13">
-        <v>1.007933583032794</v>
+        <v>1.011327898862594</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.037505027826747</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.038125442219604</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.019766611950192</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -997,46 +1111,55 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.983276894763075</v>
+        <v>0.9845281512878029</v>
       </c>
       <c r="D14">
-        <v>1.012253618112992</v>
+        <v>1.013098215758571</v>
       </c>
       <c r="E14">
-        <v>0.9934501317636319</v>
+        <v>0.9945585108399416</v>
       </c>
       <c r="F14">
-        <v>1.021424697307568</v>
+        <v>1.022120338227025</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.045880153364138</v>
+        <v>1.046321102276452</v>
       </c>
       <c r="J14">
-        <v>1.013398986340744</v>
+        <v>1.014595645785611</v>
       </c>
       <c r="K14">
-        <v>1.026964761489323</v>
+        <v>1.027793925889225</v>
       </c>
       <c r="L14">
-        <v>1.00851376776891</v>
+        <v>1.009600885131201</v>
       </c>
       <c r="M14">
-        <v>1.035970032402616</v>
+        <v>1.036653254117559</v>
       </c>
       <c r="N14">
-        <v>1.008256330700007</v>
+        <v>1.011460225442298</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.038305627610423</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.038845655119353</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.019910429683984</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1044,46 +1167,55 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9838973529099649</v>
+        <v>0.9850760443583622</v>
       </c>
       <c r="D15">
-        <v>1.012697886377874</v>
+        <v>1.013474323319751</v>
       </c>
       <c r="E15">
-        <v>0.9939497631208808</v>
+        <v>0.9949928212644704</v>
       </c>
       <c r="F15">
-        <v>1.021877683172377</v>
+        <v>1.02252156186164</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.046068397897754</v>
+        <v>1.046474034072696</v>
       </c>
       <c r="J15">
-        <v>1.013800462703052</v>
+        <v>1.014928195770482</v>
       </c>
       <c r="K15">
-        <v>1.027313627267032</v>
+        <v>1.028075988331911</v>
       </c>
       <c r="L15">
-        <v>1.00891411938744</v>
+        <v>1.00993733086078</v>
       </c>
       <c r="M15">
-        <v>1.036328780724385</v>
+        <v>1.03696125509997</v>
       </c>
       <c r="N15">
-        <v>1.008405583110359</v>
+        <v>1.01151419197638</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.038626755035473</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.039126658038304</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.01997763621066</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1091,46 +1223,55 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.987223642645402</v>
+        <v>0.9880559630803356</v>
       </c>
       <c r="D16">
-        <v>1.015026233394929</v>
+        <v>1.015468225372567</v>
       </c>
       <c r="E16">
-        <v>0.9965806245873103</v>
+        <v>0.997319986007236</v>
       </c>
       <c r="F16">
-        <v>1.024057927858153</v>
+        <v>1.024448749467816</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.047012211596915</v>
+        <v>1.047244488688452</v>
       </c>
       <c r="J16">
-        <v>1.015875061086304</v>
+        <v>1.016673282844453</v>
       </c>
       <c r="K16">
-        <v>1.029093485997531</v>
+        <v>1.029527827349914</v>
       </c>
       <c r="L16">
-        <v>1.010975032403474</v>
+        <v>1.011700977535317</v>
       </c>
       <c r="M16">
-        <v>1.037970539328637</v>
+        <v>1.038354748689236</v>
       </c>
       <c r="N16">
-        <v>1.009098564874252</v>
+        <v>1.011762770037207</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.039885652911994</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
+        <v>1.040189337916772</v>
+      </c>
+      <c r="S16">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="T16">
+        <v>1.02029870883403</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1138,46 +1279,55 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9891773590402974</v>
+        <v>0.9898344153174095</v>
       </c>
       <c r="D17">
-        <v>1.016368861750473</v>
+        <v>1.016634764973227</v>
       </c>
       <c r="E17">
-        <v>0.9981072469192078</v>
+        <v>0.9986963904339539</v>
       </c>
       <c r="F17">
-        <v>1.025226711436438</v>
+        <v>1.025485201739035</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.047534176778594</v>
+        <v>1.047675119290638</v>
       </c>
       <c r="J17">
-        <v>1.017057883755779</v>
+        <v>1.01768892594119</v>
       </c>
       <c r="K17">
-        <v>1.030095846190143</v>
+        <v>1.030357280316093</v>
       </c>
       <c r="L17">
-        <v>1.01214854454217</v>
+        <v>1.012727315320814</v>
       </c>
       <c r="M17">
-        <v>1.038806424732799</v>
+        <v>1.039060666496331</v>
       </c>
       <c r="N17">
-        <v>1.009460571979766</v>
+        <v>1.011914147162937</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.040417262026951</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
+        <v>1.04061823872539</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.020470404888592</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1185,46 +1335,55 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9901189553854145</v>
+        <v>0.9907189681720189</v>
       </c>
       <c r="D18">
-        <v>1.016964677965072</v>
+        <v>1.017166492857892</v>
       </c>
       <c r="E18">
-        <v>0.9988076283079829</v>
+        <v>0.9993533634186217</v>
       </c>
       <c r="F18">
-        <v>1.025586586667943</v>
+        <v>1.025797495392791</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.047729611456312</v>
+        <v>1.047837285692635</v>
       </c>
       <c r="J18">
-        <v>1.017560525063562</v>
+        <v>1.018137245831065</v>
       </c>
       <c r="K18">
-        <v>1.030496866120266</v>
+        <v>1.030695346254589</v>
       </c>
       <c r="L18">
-        <v>1.012646975430546</v>
+        <v>1.013183267995081</v>
       </c>
       <c r="M18">
-        <v>1.038977809346229</v>
+        <v>1.039185307896163</v>
       </c>
       <c r="N18">
-        <v>1.009560008123469</v>
+        <v>1.011948135609752</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.040314955004945</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
+        <v>1.04047901569279</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.020517966360321</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1232,46 +1391,55 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9901171223844139</v>
+        <v>0.9907630976794818</v>
       </c>
       <c r="D19">
-        <v>1.016856638063893</v>
+        <v>1.017094556931644</v>
       </c>
       <c r="E19">
-        <v>0.9987362322108526</v>
+        <v>0.9993314916720982</v>
       </c>
       <c r="F19">
-        <v>1.025186223819158</v>
+        <v>1.025425054011717</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.047616911941657</v>
+        <v>1.047743292988826</v>
       </c>
       <c r="J19">
-        <v>1.017421918619789</v>
+        <v>1.018042966216689</v>
       </c>
       <c r="K19">
-        <v>1.030327593953321</v>
+        <v>1.030561601599467</v>
       </c>
       <c r="L19">
-        <v>1.012512154874699</v>
+        <v>1.013097168978022</v>
       </c>
       <c r="M19">
-        <v>1.03852163392811</v>
+        <v>1.038756619349062</v>
       </c>
       <c r="N19">
-        <v>1.009416935196617</v>
+        <v>1.011851510614291</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.039628571764994</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
+        <v>1.039814425989626</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.020445511433683</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1279,46 +1447,55 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.987496387283452</v>
+        <v>0.9884693011294962</v>
       </c>
       <c r="D20">
-        <v>1.014808855512473</v>
+        <v>1.01535694511334</v>
       </c>
       <c r="E20">
-        <v>0.9965257983811306</v>
+        <v>0.9974248810890173</v>
       </c>
       <c r="F20">
-        <v>1.02272517180672</v>
+        <v>1.023198717451956</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.046663321391138</v>
+        <v>1.046950565162521</v>
       </c>
       <c r="J20">
-        <v>1.01551795897631</v>
+        <v>1.016452063924746</v>
       </c>
       <c r="K20">
-        <v>1.028596212968578</v>
+        <v>1.029135031112488</v>
       </c>
       <c r="L20">
-        <v>1.010630013768916</v>
+        <v>1.011513162496623</v>
       </c>
       <c r="M20">
-        <v>1.036379859448764</v>
+        <v>1.036845552700545</v>
       </c>
       <c r="N20">
-        <v>1.008608963530855</v>
+        <v>1.011389325048854</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.037405543372399</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
+        <v>1.037774091532639</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.020048032870266</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1326,46 +1503,55 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9812594521162827</v>
+        <v>0.9829380021011396</v>
       </c>
       <c r="D21">
-        <v>1.010399338584571</v>
+        <v>1.011618277245649</v>
       </c>
       <c r="E21">
-        <v>0.991549651724621</v>
+        <v>0.9930810159087637</v>
       </c>
       <c r="F21">
-        <v>1.018479818662696</v>
+        <v>1.019463608154058</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.044847318018643</v>
+        <v>1.04548232002178</v>
       </c>
       <c r="J21">
-        <v>1.011562155412371</v>
+        <v>1.013166814105464</v>
       </c>
       <c r="K21">
-        <v>1.02518633485171</v>
+        <v>1.02638283096367</v>
       </c>
       <c r="L21">
-        <v>1.006692906784029</v>
+        <v>1.008194666988389</v>
       </c>
       <c r="M21">
-        <v>1.033119343873337</v>
+        <v>1.034085386414369</v>
       </c>
       <c r="N21">
-        <v>1.007227448429326</v>
+        <v>1.01092262586513</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.034784106588565</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
+        <v>1.035548670201506</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.019425363805756</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1373,46 +1559,55 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9772781253393696</v>
+        <v>0.9794072523358982</v>
       </c>
       <c r="D22">
-        <v>1.00760017132919</v>
+        <v>1.009247030242979</v>
       </c>
       <c r="E22">
-        <v>0.9883883965164644</v>
+        <v>0.9903229231205296</v>
       </c>
       <c r="F22">
-        <v>1.015815412917769</v>
+        <v>1.017125037003165</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.043685908741658</v>
+        <v>1.04454233912191</v>
       </c>
       <c r="J22">
-        <v>1.009049044559216</v>
+        <v>1.011078666107802</v>
       </c>
       <c r="K22">
-        <v>1.023022556056845</v>
+        <v>1.024637500748001</v>
       </c>
       <c r="L22">
-        <v>1.004193445233173</v>
+        <v>1.006088553613988</v>
       </c>
       <c r="M22">
-        <v>1.031079941950981</v>
+        <v>1.032364709690348</v>
       </c>
       <c r="N22">
-        <v>1.006356763127632</v>
+        <v>1.010624613953994</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.033170041922034</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
+        <v>1.03418685919073</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.019032292087765</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1420,46 +1615,55 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9793985053212799</v>
+        <v>0.9812677032599901</v>
       </c>
       <c r="D23">
-        <v>1.009090449162427</v>
+        <v>1.010494665910721</v>
       </c>
       <c r="E23">
-        <v>0.9900711418623209</v>
+        <v>0.9917720145700132</v>
       </c>
       <c r="F23">
-        <v>1.01723347397163</v>
+        <v>1.018357476350254</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.044305640056734</v>
+        <v>1.045036483253341</v>
       </c>
       <c r="J23">
-        <v>1.010387576482633</v>
+        <v>1.0121721264468</v>
       </c>
       <c r="K23">
-        <v>1.024175257325225</v>
+        <v>1.025552985456541</v>
       </c>
       <c r="L23">
-        <v>1.005524452011458</v>
+        <v>1.007191614035742</v>
       </c>
       <c r="M23">
-        <v>1.032166001821001</v>
+        <v>1.033269233853648</v>
       </c>
       <c r="N23">
-        <v>1.006820539743155</v>
+        <v>1.010737059522468</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.034029593824141</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16">
+        <v>1.034902735398788</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.019236742030943</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1467,46 +1671,55 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9875348273301664</v>
+        <v>0.988510747778075</v>
       </c>
       <c r="D24">
-        <v>1.014819304199666</v>
+        <v>1.015369216517056</v>
       </c>
       <c r="E24">
-        <v>0.9965468210588179</v>
+        <v>0.9974496959203549</v>
       </c>
       <c r="F24">
-        <v>1.022694873986594</v>
+        <v>1.02316994749859</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.04665738219277</v>
+        <v>1.046945572965169</v>
       </c>
       <c r="J24">
-        <v>1.01552130371406</v>
+        <v>1.016458354645384</v>
       </c>
       <c r="K24">
-        <v>1.028591079976768</v>
+        <v>1.029131702214325</v>
       </c>
       <c r="L24">
-        <v>1.010634850987975</v>
+        <v>1.011521746267531</v>
       </c>
       <c r="M24">
-        <v>1.036334828803275</v>
+        <v>1.03680203409165</v>
       </c>
       <c r="N24">
-        <v>1.008598521532199</v>
+        <v>1.011379826375673</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.037328963138155</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16">
+        <v>1.03769872633895</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.020041183629661</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1514,43 +1727,52 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9965742367642749</v>
+        <v>0.9968327606106805</v>
       </c>
       <c r="D25">
-        <v>1.021201245771065</v>
+        <v>1.021001569972086</v>
       </c>
       <c r="E25">
-        <v>1.003776282902789</v>
+        <v>1.004048072387201</v>
       </c>
       <c r="F25">
-        <v>1.02879912162734</v>
+        <v>1.028717627337692</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.049213820215243</v>
+        <v>1.049113156440369</v>
       </c>
       <c r="J25">
-        <v>1.021217444092676</v>
+        <v>1.021467187159603</v>
       </c>
       <c r="K25">
-        <v>1.03347911913378</v>
+        <v>1.033282382452474</v>
       </c>
       <c r="L25">
-        <v>1.016316258429541</v>
+        <v>1.016583870596881</v>
       </c>
       <c r="M25">
-        <v>1.040966232659787</v>
+        <v>1.040885915398935</v>
       </c>
       <c r="N25">
-        <v>1.010569435836062</v>
+        <v>1.012697848614491</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.040994415596678</v>
+        <v>1.040930849910594</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.020986127622195</v>
       </c>
     </row>
   </sheetData>
